--- a/grade_seven.xlsx
+++ b/grade_seven.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soorbon-01\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14376" windowHeight="7428"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7425"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -194,9 +189,6 @@
     <t>mbvG1NB8BXxgf05dbT56</t>
   </si>
   <si>
-    <t>vdDACg67q2GZB0XbKQc</t>
-  </si>
-  <si>
     <t>Lzvy7Kj85a35iKqfPGa4</t>
   </si>
   <si>
@@ -210,12 +202,15 @@
   </si>
   <si>
     <t>gC5Nx3CJwHClfXNkmJ96</t>
+  </si>
+  <si>
+    <t>HvdDACg67q2GZB0XbKQc</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -310,7 +305,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -345,7 +340,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -522,7 +517,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -532,18 +527,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.44140625" customWidth="1"/>
-    <col min="2" max="2" width="6.88671875" customWidth="1"/>
-    <col min="3" max="4" width="25.5546875" customWidth="1"/>
-    <col min="5" max="5" width="24.5546875" customWidth="1"/>
-    <col min="6" max="6" width="25.44140625" customWidth="1"/>
-    <col min="7" max="7" width="7.44140625" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" customWidth="1"/>
+    <col min="3" max="4" width="25.5703125" customWidth="1"/>
+    <col min="5" max="5" width="24.5703125" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -782,16 +777,16 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="F13" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -802,7 +797,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" t="s">
         <v>35</v>
@@ -831,7 +826,7 @@
         <v>39</v>
       </c>
       <c r="F15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -865,13 +860,13 @@
         <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E17" t="s">
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
@@ -896,16 +891,16 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/grade_seven.xlsx
+++ b/grade_seven.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC 1\Desktop\مدرسه پیشتاز\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="7425"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
   <si>
     <t>id</t>
   </si>
@@ -39,178 +44,199 @@
     <t>fourth_course_code</t>
   </si>
   <si>
-    <t>o6aBbADmbzlyXTFxMR6R</t>
-  </si>
-  <si>
-    <t>FUSEtC3PbPjCQjgO7kve</t>
-  </si>
-  <si>
-    <t>kNJHql5CCzcIkYl2uFAD</t>
-  </si>
-  <si>
-    <t>aJFIM2YG008NZEdAJGt1</t>
-  </si>
-  <si>
-    <t>AaHlWuQFPdwbsTy1bDOL</t>
-  </si>
-  <si>
-    <t>1YxWJ2DsLXDVtP9DbfSY</t>
-  </si>
-  <si>
-    <t>LuNZpD5xv97TMGkcnFEr</t>
-  </si>
-  <si>
-    <t>eoBAXX1g7Pfy9yztC7qu</t>
-  </si>
-  <si>
-    <t>8CvSK7X0ShleQyuNKbOK</t>
-  </si>
-  <si>
-    <t>wjm1Ks2dO6D1ezuor2Nk</t>
-  </si>
-  <si>
-    <t>mNSrxQa78cvDjvmgy5bm</t>
-  </si>
-  <si>
-    <t>b51tjP9xqWlegMVGMqhY</t>
-  </si>
-  <si>
-    <t>TjQcJ1UeGksI9gqywgUV</t>
-  </si>
-  <si>
-    <t>1jnblqZiN2oh647UKbPC</t>
-  </si>
-  <si>
-    <t>ZIK6BP1PvVnEnx4Q3Ubr</t>
-  </si>
-  <si>
-    <t>4onMoRrIFDiiMwu12o9T</t>
-  </si>
-  <si>
-    <t>l3ZCkPrHgU4xr9JgC4BH</t>
-  </si>
-  <si>
-    <t>DxHCn3QVjbcjZJYTEag8</t>
-  </si>
-  <si>
-    <t>DeHKmLFWDO30qsTMmNUh</t>
-  </si>
-  <si>
-    <t>5nlR8zOizqqmO72uiSmw</t>
-  </si>
-  <si>
-    <t>IZ7X9lMHJcH8dDdDjWBG</t>
-  </si>
-  <si>
-    <t>0EUoKEcQC3FRllpJttj1</t>
-  </si>
-  <si>
-    <t>12ItfX5H7YPHz4352fFg</t>
-  </si>
-  <si>
-    <t>eYMrR4jZvxcZCvncfbwF</t>
-  </si>
-  <si>
-    <t>Cn3nXLq9v51iyVHZCv2g</t>
-  </si>
-  <si>
-    <t>WOfbPAr1oKrnzdRd4EYf</t>
-  </si>
-  <si>
-    <t>tHeL5XE4IyFe8bPlL7Rg</t>
-  </si>
-  <si>
-    <t>52CMCZyQwWezQMODlI1e</t>
-  </si>
-  <si>
-    <t>8z1eRbScXtrnZ2spsqzp</t>
-  </si>
-  <si>
-    <t>wXjYA71FvOjBWnjTGIIS</t>
-  </si>
-  <si>
-    <t>UoI9j3GxLCch4YNW3Lou</t>
-  </si>
-  <si>
-    <t>XU8CAXT0T27u1Jju3LRb</t>
-  </si>
-  <si>
-    <t>yCVIxMLDlpIqvcpdCXVR</t>
-  </si>
-  <si>
-    <t>CFk71Txv75yvKZG4f9O5</t>
-  </si>
-  <si>
-    <t>rZwJWybIFoXYuDm4gmaJ</t>
-  </si>
-  <si>
-    <t>5lH9mHaTbHSxupMmgzug</t>
-  </si>
-  <si>
-    <t>YrKFYGzJApRCeC87iYlB</t>
-  </si>
-  <si>
-    <t>ddTtebH0qAcVUUFzaErU</t>
-  </si>
-  <si>
-    <t>HtFEbFdRWt0HKGE6dnw4</t>
-  </si>
-  <si>
-    <t>c3VCmmp0NqAzG4LzTDtN</t>
-  </si>
-  <si>
-    <t>x6tcisMOsPK6vLm4zQgP</t>
-  </si>
-  <si>
-    <t>lnRGvw7MEjvjX0RptlmF</t>
-  </si>
-  <si>
-    <t>oPXOjY4ytByZUQA2jYQa</t>
-  </si>
-  <si>
-    <t>NedppsaCYbxUvDTcjh2Y</t>
-  </si>
-  <si>
-    <t>4A62eXJKBlKYLJc0A48g</t>
-  </si>
-  <si>
-    <t>6Wmgl3qA38LjliO0Tkly</t>
-  </si>
-  <si>
-    <t>HrYnaUJAF37WqQlsTNaY</t>
-  </si>
-  <si>
-    <t>CSqihWCcaOJrqSBIdpsk</t>
-  </si>
-  <si>
-    <t>APkyQqOMIHteUZcbS8w2</t>
-  </si>
-  <si>
-    <t>mbvG1NB8BXxgf05dbT56</t>
-  </si>
-  <si>
-    <t>Lzvy7Kj85a35iKqfPGa4</t>
-  </si>
-  <si>
-    <t>LWfr6uCmmUy3ZCLETQSu</t>
-  </si>
-  <si>
-    <t>vhaDT9aHoHLG6FfKBlUu</t>
-  </si>
-  <si>
-    <t>6jD5MgSoME4JUAz5ZgLI</t>
-  </si>
-  <si>
-    <t>gC5Nx3CJwHClfXNkmJ96</t>
-  </si>
-  <si>
-    <t>HvdDACg67q2GZB0XbKQc</t>
+    <t>**</t>
+  </si>
+  <si>
+    <t>***********************</t>
+  </si>
+  <si>
+    <t>*********************</t>
+  </si>
+  <si>
+    <t>*****************</t>
+  </si>
+  <si>
+    <t>***************</t>
+  </si>
+  <si>
+    <t>****************</t>
+  </si>
+  <si>
+    <t>**********************</t>
+  </si>
+  <si>
+    <t>*************</t>
+  </si>
+  <si>
+    <t>********************</t>
+  </si>
+  <si>
+    <t>C1RBbAWD6pxKttA1acPP</t>
+  </si>
+  <si>
+    <t>0jgJN5F8UdtOmjlrj0xs</t>
+  </si>
+  <si>
+    <t>cS953YUjO3Wgs8bhgHo5</t>
+  </si>
+  <si>
+    <t>fc30gZa525phdSNE60xl</t>
+  </si>
+  <si>
+    <t>ELbrzMUwUA24Q4RlhFsh</t>
+  </si>
+  <si>
+    <t>LRT86ygzxTcTOXktz3sv</t>
+  </si>
+  <si>
+    <t>3h4UKerUfeUjzliIH2Fp</t>
+  </si>
+  <si>
+    <t>z5qFAxrgw067892RNVpq</t>
+  </si>
+  <si>
+    <t>dvkhbmVcc2a8SCMF1fs6</t>
+  </si>
+  <si>
+    <t>iZA8sK4iOhdWoGctF6XE</t>
+  </si>
+  <si>
+    <t>5fGI3WQHYElm7qG1pyfq</t>
+  </si>
+  <si>
+    <t>T7C28i5KapAjXXDNCO6d</t>
+  </si>
+  <si>
+    <t>Ss6Y0sK8TnqFq1STJIxC</t>
+  </si>
+  <si>
+    <t>ftERhhyh4V8eENQTDq3K</t>
+  </si>
+  <si>
+    <t>zk2pFLlyjv5KPPcRRO91</t>
+  </si>
+  <si>
+    <t>4sVnLtQ3vrRyAlkl7ppn</t>
+  </si>
+  <si>
+    <t>gurFahGCIkZzTP0EYfEw</t>
+  </si>
+  <si>
+    <t>TB8L9CrkvS9UpZ71flxW</t>
+  </si>
+  <si>
+    <t>AR0DQMsI4b3HPs6c0mYR</t>
+  </si>
+  <si>
+    <t>CA2QfuAxLNJRZlNi8L3H</t>
+  </si>
+  <si>
+    <t>Dizc3DDv6nBHvEo8rXK9</t>
+  </si>
+  <si>
+    <t>JNKKISnbe8TZqVxuqc48</t>
+  </si>
+  <si>
+    <t>nGKMaovZNfvlCvpGKLXU</t>
+  </si>
+  <si>
+    <t>jKxvXw69q9hFQWxRy5ET</t>
+  </si>
+  <si>
+    <t>YMgiBG0n5JRL0cTAE3Us</t>
+  </si>
+  <si>
+    <t>YEmR3DQwohMCWiV06kbR</t>
+  </si>
+  <si>
+    <t>yDZZr0vyc6Ywxnz8N5Gm</t>
+  </si>
+  <si>
+    <t>BRQYeZbFrTyoPgEkdrpo</t>
+  </si>
+  <si>
+    <t>PAR40TgyKo8MZVw0uLIp</t>
+  </si>
+  <si>
+    <t>tE3mIGHON9TIm8abh5Cx</t>
+  </si>
+  <si>
+    <t>fteOCqFA982XR33PCTMm</t>
+  </si>
+  <si>
+    <t>0pc607GNLg7dYtpgkBPA</t>
+  </si>
+  <si>
+    <t>ObSkeeCX7ytpSqxV6QVO</t>
+  </si>
+  <si>
+    <t>pmEDJhFaVzUuGSohRYTf</t>
+  </si>
+  <si>
+    <t>SmXMeupEfbxJh8yaRIVP</t>
+  </si>
+  <si>
+    <t>VmUK7LrylGEny4JvIjht</t>
+  </si>
+  <si>
+    <t>KQkLLOhppEGSRTdP0eek</t>
+  </si>
+  <si>
+    <t>69hetVF4ixPkdjDZ3jLo</t>
+  </si>
+  <si>
+    <t>AYr2DlhvQ1aT9vGbQSxi</t>
+  </si>
+  <si>
+    <t>JaLARcrIbwcQMUPiNkTL</t>
+  </si>
+  <si>
+    <t>2AwoFvkEGYRcg6f7yfYR</t>
+  </si>
+  <si>
+    <t>LetqUi5Me4udXxzwlG1h</t>
+  </si>
+  <si>
+    <t>/Pw8Apb4BsPG1hrWu3S6x</t>
+  </si>
+  <si>
+    <t>nUoqwqMYdvU7LHTvV6Xv</t>
+  </si>
+  <si>
+    <t>HCl1KYWMUoQa2J1vQW6d</t>
+  </si>
+  <si>
+    <t>608eufrYSDIYkDOmDkWt</t>
+  </si>
+  <si>
+    <t>zYeH1wbzfD9BMIeuZ1Qh</t>
+  </si>
+  <si>
+    <t>cd41FvKTehO6CbX84Hy9</t>
+  </si>
+  <si>
+    <t>jJ3DH5EwdDdxuuNuQAwl</t>
+  </si>
+  <si>
+    <t>dUafgs9gwWwtyOiqCWW8</t>
+  </si>
+  <si>
+    <t>tEsn7th8AJfw6IhlmqPD</t>
+  </si>
+  <si>
+    <t>6RCphZD5Y11oImE8Zvor</t>
+  </si>
+  <si>
+    <t>cviGPkPHKVyb9ODfRkxY</t>
+  </si>
+  <si>
+    <t>7Han5VQ8Px18BOcIk1Wr</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -305,7 +331,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -340,7 +366,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -517,7 +543,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -528,7 +554,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -541,7 +567,7 @@
     <col min="7" max="7" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -561,7 +587,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -569,19 +595,19 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -589,19 +615,19 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -609,19 +635,19 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -629,33 +655,39 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
-        <v>50</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="F6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -663,19 +695,19 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>51</v>
+        <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -683,19 +715,19 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>37</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -703,19 +735,19 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -723,19 +755,19 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -743,33 +775,39 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="E11" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>2</v>
       </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="E12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -777,19 +815,19 @@
         <v>2</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>61</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -797,19 +835,19 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -817,19 +855,19 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -837,19 +875,19 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>57</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>62</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -857,33 +895,39 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
       <c r="D17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="F17" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="1">
         <v>3</v>
       </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="F18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -891,16 +935,16 @@
         <v>3</v>
       </c>
       <c r="C19" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="E19" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/grade_seven.xlsx
+++ b/grade_seven.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="69">
   <si>
     <t>id</t>
   </si>
@@ -71,166 +71,166 @@
     <t>********************</t>
   </si>
   <si>
-    <t>C1RBbAWD6pxKttA1acPP</t>
-  </si>
-  <si>
-    <t>0jgJN5F8UdtOmjlrj0xs</t>
-  </si>
-  <si>
-    <t>cS953YUjO3Wgs8bhgHo5</t>
-  </si>
-  <si>
-    <t>fc30gZa525phdSNE60xl</t>
-  </si>
-  <si>
-    <t>ELbrzMUwUA24Q4RlhFsh</t>
-  </si>
-  <si>
-    <t>LRT86ygzxTcTOXktz3sv</t>
-  </si>
-  <si>
-    <t>3h4UKerUfeUjzliIH2Fp</t>
-  </si>
-  <si>
-    <t>z5qFAxrgw067892RNVpq</t>
-  </si>
-  <si>
-    <t>dvkhbmVcc2a8SCMF1fs6</t>
-  </si>
-  <si>
-    <t>iZA8sK4iOhdWoGctF6XE</t>
-  </si>
-  <si>
-    <t>5fGI3WQHYElm7qG1pyfq</t>
-  </si>
-  <si>
-    <t>T7C28i5KapAjXXDNCO6d</t>
-  </si>
-  <si>
-    <t>Ss6Y0sK8TnqFq1STJIxC</t>
-  </si>
-  <si>
-    <t>ftERhhyh4V8eENQTDq3K</t>
-  </si>
-  <si>
-    <t>zk2pFLlyjv5KPPcRRO91</t>
-  </si>
-  <si>
-    <t>4sVnLtQ3vrRyAlkl7ppn</t>
-  </si>
-  <si>
-    <t>gurFahGCIkZzTP0EYfEw</t>
-  </si>
-  <si>
-    <t>TB8L9CrkvS9UpZ71flxW</t>
-  </si>
-  <si>
-    <t>AR0DQMsI4b3HPs6c0mYR</t>
-  </si>
-  <si>
-    <t>CA2QfuAxLNJRZlNi8L3H</t>
-  </si>
-  <si>
-    <t>Dizc3DDv6nBHvEo8rXK9</t>
-  </si>
-  <si>
-    <t>JNKKISnbe8TZqVxuqc48</t>
-  </si>
-  <si>
-    <t>nGKMaovZNfvlCvpGKLXU</t>
-  </si>
-  <si>
-    <t>jKxvXw69q9hFQWxRy5ET</t>
-  </si>
-  <si>
-    <t>YMgiBG0n5JRL0cTAE3Us</t>
-  </si>
-  <si>
-    <t>YEmR3DQwohMCWiV06kbR</t>
-  </si>
-  <si>
-    <t>yDZZr0vyc6Ywxnz8N5Gm</t>
-  </si>
-  <si>
-    <t>BRQYeZbFrTyoPgEkdrpo</t>
-  </si>
-  <si>
-    <t>PAR40TgyKo8MZVw0uLIp</t>
-  </si>
-  <si>
-    <t>tE3mIGHON9TIm8abh5Cx</t>
-  </si>
-  <si>
-    <t>fteOCqFA982XR33PCTMm</t>
-  </si>
-  <si>
-    <t>0pc607GNLg7dYtpgkBPA</t>
-  </si>
-  <si>
-    <t>ObSkeeCX7ytpSqxV6QVO</t>
-  </si>
-  <si>
-    <t>pmEDJhFaVzUuGSohRYTf</t>
-  </si>
-  <si>
-    <t>SmXMeupEfbxJh8yaRIVP</t>
-  </si>
-  <si>
-    <t>VmUK7LrylGEny4JvIjht</t>
-  </si>
-  <si>
-    <t>KQkLLOhppEGSRTdP0eek</t>
-  </si>
-  <si>
-    <t>69hetVF4ixPkdjDZ3jLo</t>
-  </si>
-  <si>
-    <t>AYr2DlhvQ1aT9vGbQSxi</t>
-  </si>
-  <si>
-    <t>JaLARcrIbwcQMUPiNkTL</t>
-  </si>
-  <si>
-    <t>2AwoFvkEGYRcg6f7yfYR</t>
-  </si>
-  <si>
-    <t>LetqUi5Me4udXxzwlG1h</t>
-  </si>
-  <si>
-    <t>/Pw8Apb4BsPG1hrWu3S6x</t>
-  </si>
-  <si>
-    <t>nUoqwqMYdvU7LHTvV6Xv</t>
-  </si>
-  <si>
-    <t>HCl1KYWMUoQa2J1vQW6d</t>
-  </si>
-  <si>
-    <t>608eufrYSDIYkDOmDkWt</t>
-  </si>
-  <si>
-    <t>zYeH1wbzfD9BMIeuZ1Qh</t>
-  </si>
-  <si>
-    <t>cd41FvKTehO6CbX84Hy9</t>
-  </si>
-  <si>
-    <t>jJ3DH5EwdDdxuuNuQAwl</t>
-  </si>
-  <si>
-    <t>dUafgs9gwWwtyOiqCWW8</t>
-  </si>
-  <si>
-    <t>tEsn7th8AJfw6IhlmqPD</t>
-  </si>
-  <si>
-    <t>6RCphZD5Y11oImE8Zvor</t>
-  </si>
-  <si>
-    <t>cviGPkPHKVyb9ODfRkxY</t>
-  </si>
-  <si>
-    <t>7Han5VQ8Px18BOcIk1Wr</t>
+    <t>y07EvltGLV9gR9HFDizh</t>
+  </si>
+  <si>
+    <t>LEvgGJFv3wX8cyojhIdn</t>
+  </si>
+  <si>
+    <t>omXXaJnlYO8TnlcaR1bV</t>
+  </si>
+  <si>
+    <t>Jr5dn8P7XSkPQr70r65C</t>
+  </si>
+  <si>
+    <t>iS351pPKoJXdWFbMqmlE</t>
+  </si>
+  <si>
+    <t>hYs064OntCcSskDoe29d</t>
+  </si>
+  <si>
+    <t>L6RfCNE3qyUWhDwW0Z7P</t>
+  </si>
+  <si>
+    <t>PpLn10FJWh3fcjWJPDtV</t>
+  </si>
+  <si>
+    <t>853gANX2S8C1u1fcYqFp</t>
+  </si>
+  <si>
+    <t>DZleUqFJpTOq4bh4kH57</t>
+  </si>
+  <si>
+    <t>0vm6lbGxskI5nvn49mOt</t>
+  </si>
+  <si>
+    <t>Z29KNPT07DyWttPhrVEz</t>
+  </si>
+  <si>
+    <t>rg1k6HLOcOudEfEU0xbK</t>
+  </si>
+  <si>
+    <t>tGMkvqnQSc8jlFBxlnla</t>
+  </si>
+  <si>
+    <t>p3fg89xOJePF6heOQVDM</t>
+  </si>
+  <si>
+    <t>eLecmvMrHuDfB3dmjPLI</t>
+  </si>
+  <si>
+    <t>QbBz3cnWSlq1p3p1sDYD</t>
+  </si>
+  <si>
+    <t>BKrgoltCi57jqNlbVJXH</t>
+  </si>
+  <si>
+    <t>dt5o0ZXq0lHipSEKE45M</t>
+  </si>
+  <si>
+    <t>OQjVlR3f6VeEXqVBtPj0</t>
+  </si>
+  <si>
+    <t>McB4FI9csbPqlUrGalii</t>
+  </si>
+  <si>
+    <t>koAak2Yp38mtWKRStVNX</t>
+  </si>
+  <si>
+    <t>U0sCYYTyNCvbKioZGdeX</t>
+  </si>
+  <si>
+    <t>nONZGiPUYu271V64D46e</t>
+  </si>
+  <si>
+    <t>jlpoQFLE2TxAAOsUPKmj</t>
+  </si>
+  <si>
+    <t>z6R3kfcgwuTM8bM8ltxe</t>
+  </si>
+  <si>
+    <t>dmQai36eavG8ynY5QGJx</t>
+  </si>
+  <si>
+    <t>xbYu1RT5bo0qoGvPwzdE</t>
+  </si>
+  <si>
+    <t>naiVMpLtq4ddpF5GD19a</t>
+  </si>
+  <si>
+    <t>jGw2euU9E1AKj3Yg9jJe</t>
+  </si>
+  <si>
+    <t>9gHKdfkJ4KhGG7quRo4V</t>
+  </si>
+  <si>
+    <t>UQjHafbeiUVGygJT4qlr</t>
+  </si>
+  <si>
+    <t>lueGC7wwZ3azXw4HsMvd</t>
+  </si>
+  <si>
+    <t>FKLFL7zgFoSW1FD4u7Tt</t>
+  </si>
+  <si>
+    <t>LqnaQ7E1UGcyjLdpfI1J</t>
+  </si>
+  <si>
+    <t>3vEs6iDWUDco29GHx8Bq</t>
+  </si>
+  <si>
+    <t>4bGIwsaTQLMyz7XkmhZD</t>
+  </si>
+  <si>
+    <t>HDgCQ5CaESXkIytbwIFp</t>
+  </si>
+  <si>
+    <t>V0I2Hs5IYMCcrKAIGcki</t>
+  </si>
+  <si>
+    <t>JTBc3A0tCOZbcrc8PFqC</t>
+  </si>
+  <si>
+    <t>4p4kvLKB88R2Pn7t1xdB</t>
+  </si>
+  <si>
+    <t>QrXsuut2Qx0mbKxD3941</t>
+  </si>
+  <si>
+    <t>xJKjiDhtN80alPYfcBQp</t>
+  </si>
+  <si>
+    <t>0RgG34FQQ9XYFpaZc4JR</t>
+  </si>
+  <si>
+    <t>0ggjPNQFG217jBQvkqUu</t>
+  </si>
+  <si>
+    <t>pIy6zoLXqWGGl8pcisDp</t>
+  </si>
+  <si>
+    <t>eMBRHhJHDbxY1B1RMtU2</t>
+  </si>
+  <si>
+    <t>FH9xFUbb19oYvvw5G7cR</t>
+  </si>
+  <si>
+    <t>MxKv76wMA1Di5gblZXPN</t>
+  </si>
+  <si>
+    <t>pzEqOSDr9Zz7WZJrVODU</t>
+  </si>
+  <si>
+    <t>7WzS2e4OqovYF60zsgaI</t>
+  </si>
+  <si>
+    <t>UEG4aKqB2xMtmq0PJORj</t>
+  </si>
+  <si>
+    <t>WM0s11nvAbxUPCjRJoHx</t>
+  </si>
+  <si>
+    <t>mYm8FBX8nH1QHtccFczk</t>
   </si>
 </sst>
 </file>
@@ -554,7 +554,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -724,7 +724,7 @@
         <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -744,7 +744,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -764,7 +764,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -784,7 +784,7 @@
         <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -835,7 +835,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
         <v>55</v>
@@ -855,7 +855,7 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D15" t="s">
         <v>56</v>
@@ -875,7 +875,7 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
         <v>57</v>
@@ -895,7 +895,7 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
         <v>58</v>

--- a/grade_seven.xlsx
+++ b/grade_seven.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
   <si>
     <t>id</t>
   </si>
@@ -71,166 +71,166 @@
     <t>********************</t>
   </si>
   <si>
-    <t>y07EvltGLV9gR9HFDizh</t>
-  </si>
-  <si>
     <t>LEvgGJFv3wX8cyojhIdn</t>
   </si>
   <si>
     <t>omXXaJnlYO8TnlcaR1bV</t>
   </si>
   <si>
-    <t>Jr5dn8P7XSkPQr70r65C</t>
-  </si>
-  <si>
-    <t>iS351pPKoJXdWFbMqmlE</t>
-  </si>
-  <si>
     <t>hYs064OntCcSskDoe29d</t>
   </si>
   <si>
     <t>L6RfCNE3qyUWhDwW0Z7P</t>
   </si>
   <si>
-    <t>PpLn10FJWh3fcjWJPDtV</t>
-  </si>
-  <si>
     <t>853gANX2S8C1u1fcYqFp</t>
   </si>
   <si>
-    <t>DZleUqFJpTOq4bh4kH57</t>
-  </si>
-  <si>
     <t>0vm6lbGxskI5nvn49mOt</t>
   </si>
   <si>
     <t>Z29KNPT07DyWttPhrVEz</t>
   </si>
   <si>
-    <t>rg1k6HLOcOudEfEU0xbK</t>
-  </si>
-  <si>
     <t>tGMkvqnQSc8jlFBxlnla</t>
   </si>
   <si>
-    <t>p3fg89xOJePF6heOQVDM</t>
-  </si>
-  <si>
     <t>eLecmvMrHuDfB3dmjPLI</t>
   </si>
   <si>
     <t>QbBz3cnWSlq1p3p1sDYD</t>
   </si>
   <si>
-    <t>BKrgoltCi57jqNlbVJXH</t>
-  </si>
-  <si>
-    <t>dt5o0ZXq0lHipSEKE45M</t>
-  </si>
-  <si>
     <t>OQjVlR3f6VeEXqVBtPj0</t>
   </si>
   <si>
     <t>McB4FI9csbPqlUrGalii</t>
   </si>
   <si>
-    <t>koAak2Yp38mtWKRStVNX</t>
-  </si>
-  <si>
-    <t>U0sCYYTyNCvbKioZGdeX</t>
-  </si>
-  <si>
     <t>nONZGiPUYu271V64D46e</t>
   </si>
   <si>
     <t>jlpoQFLE2TxAAOsUPKmj</t>
   </si>
   <si>
-    <t>z6R3kfcgwuTM8bM8ltxe</t>
-  </si>
-  <si>
     <t>dmQai36eavG8ynY5QGJx</t>
   </si>
   <si>
-    <t>xbYu1RT5bo0qoGvPwzdE</t>
-  </si>
-  <si>
     <t>naiVMpLtq4ddpF5GD19a</t>
   </si>
   <si>
     <t>jGw2euU9E1AKj3Yg9jJe</t>
   </si>
   <si>
-    <t>9gHKdfkJ4KhGG7quRo4V</t>
-  </si>
-  <si>
     <t>UQjHafbeiUVGygJT4qlr</t>
   </si>
   <si>
-    <t>lueGC7wwZ3azXw4HsMvd</t>
-  </si>
-  <si>
     <t>FKLFL7zgFoSW1FD4u7Tt</t>
   </si>
   <si>
     <t>LqnaQ7E1UGcyjLdpfI1J</t>
   </si>
   <si>
-    <t>3vEs6iDWUDco29GHx8Bq</t>
-  </si>
-  <si>
-    <t>4bGIwsaTQLMyz7XkmhZD</t>
-  </si>
-  <si>
     <t>HDgCQ5CaESXkIytbwIFp</t>
   </si>
   <si>
     <t>V0I2Hs5IYMCcrKAIGcki</t>
   </si>
   <si>
-    <t>JTBc3A0tCOZbcrc8PFqC</t>
-  </si>
-  <si>
-    <t>4p4kvLKB88R2Pn7t1xdB</t>
-  </si>
-  <si>
     <t>QrXsuut2Qx0mbKxD3941</t>
   </si>
   <si>
     <t>xJKjiDhtN80alPYfcBQp</t>
   </si>
   <si>
-    <t>0RgG34FQQ9XYFpaZc4JR</t>
-  </si>
-  <si>
     <t>0ggjPNQFG217jBQvkqUu</t>
   </si>
   <si>
-    <t>pIy6zoLXqWGGl8pcisDp</t>
-  </si>
-  <si>
     <t>eMBRHhJHDbxY1B1RMtU2</t>
   </si>
   <si>
     <t>FH9xFUbb19oYvvw5G7cR</t>
   </si>
   <si>
-    <t>MxKv76wMA1Di5gblZXPN</t>
-  </si>
-  <si>
     <t>pzEqOSDr9Zz7WZJrVODU</t>
   </si>
   <si>
-    <t>7WzS2e4OqovYF60zsgaI</t>
-  </si>
-  <si>
     <t>UEG4aKqB2xMtmq0PJORj</t>
   </si>
   <si>
     <t>WM0s11nvAbxUPCjRJoHx</t>
   </si>
   <si>
-    <t>mYm8FBX8nH1QHtccFczk</t>
+    <t>EvZxF25Z6fboXyQkPtWX</t>
+  </si>
+  <si>
+    <t>UhRRtFco6g1LYSAMOF3N</t>
+  </si>
+  <si>
+    <t>Lcj53mN8KM7991qGd8zz</t>
+  </si>
+  <si>
+    <t>4A4RT6XxbKqsBEwvV8wo</t>
+  </si>
+  <si>
+    <t>ifjiFoIfKQhDFiDncZuZ</t>
+  </si>
+  <si>
+    <t>9a8jgHWcTfM3Z6B12XdT</t>
+  </si>
+  <si>
+    <t>kCgbyg76CPP5MCNb1peJ</t>
+  </si>
+  <si>
+    <t>cnQAjUroHCev0i87A4eb</t>
+  </si>
+  <si>
+    <t>0tR79XBdyBmDnokTgOVL</t>
+  </si>
+  <si>
+    <t>0UCt9AbEjb0pWbck4ygC</t>
+  </si>
+  <si>
+    <t>MPCNsmnk79aRe2gZESQo</t>
+  </si>
+  <si>
+    <t>RDETDHrjCOI2BsNX2709</t>
+  </si>
+  <si>
+    <t>IW9ZaJ8tACfqeK5l9AxX</t>
+  </si>
+  <si>
+    <t>pR9LNRfeb2i3sNGCWd5g</t>
+  </si>
+  <si>
+    <t>oDhHuGW4KUXt9yuuN2sm</t>
+  </si>
+  <si>
+    <t>YajA9xzXI0UGsaNeTutk</t>
+  </si>
+  <si>
+    <t>tCXKgjC4Lctq0g9rMCcu</t>
+  </si>
+  <si>
+    <t>LiyBjLC6w2h4d0ABHT5L</t>
+  </si>
+  <si>
+    <t>iqx6GLPMejfMddzr82QB</t>
+  </si>
+  <si>
+    <t>7PGNPORYDCSgawF58iL8</t>
+  </si>
+  <si>
+    <t>l4cn6ZSRo9yFJSCCkqwh</t>
+  </si>
+  <si>
+    <t>a56RxfaCjCmUAOYbj4jj</t>
+  </si>
+  <si>
+    <t>ynI2PlnRWA5r2swEXonq</t>
+  </si>
+  <si>
+    <t>UWonFliRsXXBsP8vNEkK</t>
   </si>
 </sst>
 </file>
@@ -554,7 +554,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,16 +595,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -615,16 +615,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" t="s">
         <v>20</v>
       </c>
-      <c r="E3" t="s">
-        <v>25</v>
-      </c>
       <c r="F3" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -635,16 +635,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
         <v>21</v>
       </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
       <c r="F4" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -655,16 +655,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>27</v>
+        <v>47</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -678,10 +678,10 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -715,16 +715,16 @@
         <v>2</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="F8" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -735,16 +735,16 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -755,16 +755,16 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -775,16 +775,16 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -798,10 +798,10 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="F12" t="s">
         <v>6</v>
@@ -835,16 +835,16 @@
         <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E14" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -855,16 +855,16 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>48</v>
+        <v>33</v>
       </c>
       <c r="D15" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="E15" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="F15" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -875,16 +875,16 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -895,16 +895,16 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F17" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -918,10 +918,10 @@
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="E18" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="F18" t="s">
         <v>6</v>

--- a/grade_seven.xlsx
+++ b/grade_seven.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="57">
   <si>
     <t>id</t>
   </si>
@@ -71,93 +71,57 @@
     <t>********************</t>
   </si>
   <si>
-    <t>LEvgGJFv3wX8cyojhIdn</t>
-  </si>
-  <si>
     <t>omXXaJnlYO8TnlcaR1bV</t>
   </si>
   <si>
-    <t>hYs064OntCcSskDoe29d</t>
-  </si>
-  <si>
     <t>L6RfCNE3qyUWhDwW0Z7P</t>
   </si>
   <si>
     <t>853gANX2S8C1u1fcYqFp</t>
   </si>
   <si>
-    <t>0vm6lbGxskI5nvn49mOt</t>
-  </si>
-  <si>
     <t>Z29KNPT07DyWttPhrVEz</t>
   </si>
   <si>
     <t>tGMkvqnQSc8jlFBxlnla</t>
   </si>
   <si>
-    <t>eLecmvMrHuDfB3dmjPLI</t>
-  </si>
-  <si>
     <t>QbBz3cnWSlq1p3p1sDYD</t>
   </si>
   <si>
-    <t>OQjVlR3f6VeEXqVBtPj0</t>
-  </si>
-  <si>
     <t>McB4FI9csbPqlUrGalii</t>
   </si>
   <si>
-    <t>nONZGiPUYu271V64D46e</t>
-  </si>
-  <si>
     <t>jlpoQFLE2TxAAOsUPKmj</t>
   </si>
   <si>
     <t>dmQai36eavG8ynY5QGJx</t>
   </si>
   <si>
-    <t>naiVMpLtq4ddpF5GD19a</t>
-  </si>
-  <si>
     <t>jGw2euU9E1AKj3Yg9jJe</t>
   </si>
   <si>
     <t>UQjHafbeiUVGygJT4qlr</t>
   </si>
   <si>
-    <t>FKLFL7zgFoSW1FD4u7Tt</t>
-  </si>
-  <si>
     <t>LqnaQ7E1UGcyjLdpfI1J</t>
   </si>
   <si>
-    <t>HDgCQ5CaESXkIytbwIFp</t>
-  </si>
-  <si>
     <t>V0I2Hs5IYMCcrKAIGcki</t>
   </si>
   <si>
-    <t>QrXsuut2Qx0mbKxD3941</t>
-  </si>
-  <si>
     <t>xJKjiDhtN80alPYfcBQp</t>
   </si>
   <si>
     <t>0ggjPNQFG217jBQvkqUu</t>
   </si>
   <si>
-    <t>eMBRHhJHDbxY1B1RMtU2</t>
-  </si>
-  <si>
     <t>FH9xFUbb19oYvvw5G7cR</t>
   </si>
   <si>
     <t>pzEqOSDr9Zz7WZJrVODU</t>
   </si>
   <si>
-    <t>UEG4aKqB2xMtmq0PJORj</t>
-  </si>
-  <si>
     <t>WM0s11nvAbxUPCjRJoHx</t>
   </si>
   <si>
@@ -197,40 +161,40 @@
     <t>RDETDHrjCOI2BsNX2709</t>
   </si>
   <si>
-    <t>IW9ZaJ8tACfqeK5l9AxX</t>
-  </si>
-  <si>
-    <t>pR9LNRfeb2i3sNGCWd5g</t>
-  </si>
-  <si>
-    <t>oDhHuGW4KUXt9yuuN2sm</t>
-  </si>
-  <si>
-    <t>YajA9xzXI0UGsaNeTutk</t>
-  </si>
-  <si>
-    <t>tCXKgjC4Lctq0g9rMCcu</t>
-  </si>
-  <si>
-    <t>LiyBjLC6w2h4d0ABHT5L</t>
-  </si>
-  <si>
-    <t>iqx6GLPMejfMddzr82QB</t>
-  </si>
-  <si>
-    <t>7PGNPORYDCSgawF58iL8</t>
-  </si>
-  <si>
-    <t>l4cn6ZSRo9yFJSCCkqwh</t>
-  </si>
-  <si>
-    <t>a56RxfaCjCmUAOYbj4jj</t>
-  </si>
-  <si>
-    <t>ynI2PlnRWA5r2swEXonq</t>
-  </si>
-  <si>
-    <t>UWonFliRsXXBsP8vNEkK</t>
+    <t>b2wRV2uP7N1iwZioFGrT</t>
+  </si>
+  <si>
+    <t>XKZz3YI8pIlOahTDpCW2</t>
+  </si>
+  <si>
+    <t>z3G8yCe31oIIfW9Hd2AD</t>
+  </si>
+  <si>
+    <t>agzYZgUuhmN2UOEhBK8m</t>
+  </si>
+  <si>
+    <t>K07DqGryxNUsknDgI999</t>
+  </si>
+  <si>
+    <t>NTkDIAYnjMrRy5r6q2bK</t>
+  </si>
+  <si>
+    <t>IEKuU0pORy6RuRPksnej</t>
+  </si>
+  <si>
+    <t>HZiMBRZ2mvEApSy80Et1</t>
+  </si>
+  <si>
+    <t>KApyw3tfVKIqznJfqB6v</t>
+  </si>
+  <si>
+    <t>pUriqnWv0JwDX3F03dwT</t>
+  </si>
+  <si>
+    <t>X42LIVdTlVXxzETQeBT5</t>
+  </si>
+  <si>
+    <t>oSDPwiYwofcwpRYpLNlr</t>
   </si>
 </sst>
 </file>
@@ -554,7 +518,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -595,16 +559,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -615,16 +579,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -635,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" t="s">
-        <v>21</v>
-      </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -655,16 +619,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -678,10 +642,10 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" t="s">
         <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -714,18 +678,6 @@
       <c r="B8" s="1">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
-        <v>65</v>
-      </c>
-      <c r="D8" t="s">
-        <v>66</v>
-      </c>
-      <c r="E8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" t="s">
-        <v>68</v>
-      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
@@ -735,16 +687,16 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="F9" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -755,16 +707,16 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -775,16 +727,16 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E11" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -798,10 +750,10 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="F12" t="s">
         <v>6</v>
@@ -834,18 +786,6 @@
       <c r="B14" s="1">
         <v>3</v>
       </c>
-      <c r="C14" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" t="s">
-        <v>64</v>
-      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
@@ -855,16 +795,16 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>33</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="F15" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -875,16 +815,16 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F16" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -895,16 +835,16 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -918,10 +858,10 @@
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E18" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="F18" t="s">
         <v>6</v>

--- a/grade_seven.xlsx
+++ b/grade_seven.xlsx
@@ -77,15 +77,9 @@
     <t>L6RfCNE3qyUWhDwW0Z7P</t>
   </si>
   <si>
-    <t>853gANX2S8C1u1fcYqFp</t>
-  </si>
-  <si>
     <t>Z29KNPT07DyWttPhrVEz</t>
   </si>
   <si>
-    <t>tGMkvqnQSc8jlFBxlnla</t>
-  </si>
-  <si>
     <t>QbBz3cnWSlq1p3p1sDYD</t>
   </si>
   <si>
@@ -95,15 +89,9 @@
     <t>jlpoQFLE2TxAAOsUPKmj</t>
   </si>
   <si>
-    <t>dmQai36eavG8ynY5QGJx</t>
-  </si>
-  <si>
     <t>jGw2euU9E1AKj3Yg9jJe</t>
   </si>
   <si>
-    <t>UQjHafbeiUVGygJT4qlr</t>
-  </si>
-  <si>
     <t>LqnaQ7E1UGcyjLdpfI1J</t>
   </si>
   <si>
@@ -113,15 +101,9 @@
     <t>xJKjiDhtN80alPYfcBQp</t>
   </si>
   <si>
-    <t>0ggjPNQFG217jBQvkqUu</t>
-  </si>
-  <si>
     <t>FH9xFUbb19oYvvw5G7cR</t>
   </si>
   <si>
-    <t>pzEqOSDr9Zz7WZJrVODU</t>
-  </si>
-  <si>
     <t>WM0s11nvAbxUPCjRJoHx</t>
   </si>
   <si>
@@ -195,6 +177,24 @@
   </si>
   <si>
     <t>oSDPwiYwofcwpRYpLNlr</t>
+  </si>
+  <si>
+    <t>Xbsh6UCb3l94ToInOCVi</t>
+  </si>
+  <si>
+    <t>YpJsoRGg8G2DWU2PLZ78</t>
+  </si>
+  <si>
+    <t>9JwUh0BdrG4KqCW7EIKQ</t>
+  </si>
+  <si>
+    <t>lEhv6AtB5bMToBrwRe06</t>
+  </si>
+  <si>
+    <t>CXMl6q4xEIJ2Lx51wGIB</t>
+  </si>
+  <si>
+    <t>RaHCxD9RcyRjHk11IvTJ</t>
   </si>
 </sst>
 </file>
@@ -518,7 +518,7 @@
   <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,16 +559,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -579,16 +579,16 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D3" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -605,10 +605,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
         <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -619,16 +619,16 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F5" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -642,10 +642,10 @@
         <v>6</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
       <c r="F6" t="s">
         <v>6</v>
@@ -687,16 +687,16 @@
         <v>2</v>
       </c>
       <c r="C9" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -707,16 +707,16 @@
         <v>2</v>
       </c>
       <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
         <v>21</v>
       </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" t="s">
-        <v>24</v>
-      </c>
       <c r="F10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -727,16 +727,16 @@
         <v>2</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -750,10 +750,10 @@
         <v>6</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="E12" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="F12" t="s">
         <v>6</v>
@@ -795,16 +795,16 @@
         <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D15" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="F15" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -815,16 +815,16 @@
         <v>3</v>
       </c>
       <c r="C16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
         <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" t="s">
-        <v>30</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -835,16 +835,16 @@
         <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="F17" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -858,10 +858,10 @@
         <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="E18" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="F18" t="s">
         <v>6</v>
